--- a/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>420</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>210</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>690</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>690</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1110</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>280</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>170</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>320</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>620</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>640</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>1200</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>240</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>100</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>80</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>1160</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>420</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>20</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>20</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>160</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>80</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>120</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>100</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>60</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>300</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>220</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>220</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>20</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>80</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>40</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>200</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1320</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1830</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>790</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2460</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1580</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>460</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>280</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>280</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>840</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>240</v>

--- a/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
@@ -503,7 +503,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -774,7 +774,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>790</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -749,7 +750,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -839,6 +840,635 @@
       </c>
       <c r="B12" t="n">
         <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C2" t="n">
+        <v>145.8098183648693</v>
+      </c>
+      <c r="D2" t="n">
+        <v>892.7825178429489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>499</v>
+      </c>
+      <c r="C3" t="n">
+        <v>108.5351727552197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>885.4973714335051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>489</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86.26438380504935</v>
+      </c>
+      <c r="D4" t="n">
+        <v>886.8411011414785</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>479</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96.78747476538096</v>
+      </c>
+      <c r="D5" t="n">
+        <v>850.6203076796837</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>459</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72.46969946524325</v>
+      </c>
+      <c r="D6" t="n">
+        <v>839.2972522373504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>449</v>
+      </c>
+      <c r="C7" t="n">
+        <v>92.30886614690128</v>
+      </c>
+      <c r="D7" t="n">
+        <v>811.8210538415991</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>439</v>
+      </c>
+      <c r="C8" t="n">
+        <v>53.55109746185657</v>
+      </c>
+      <c r="D8" t="n">
+        <v>812.7453622599968</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>430</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.281025509048</v>
+      </c>
+      <c r="D9" t="n">
+        <v>818.6968236477281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>420</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.50939532861754</v>
+      </c>
+      <c r="D10" t="n">
+        <v>797.4604307820865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>410</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-22.55947800121094</v>
+      </c>
+      <c r="D11" t="n">
+        <v>801.5068749909087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>400</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.45726121212674</v>
+      </c>
+      <c r="D12" t="n">
+        <v>778.8054526408001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>380</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.79225130361617</v>
+      </c>
+      <c r="D13" t="n">
+        <v>755.8627254187193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>370</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-43.92275861567186</v>
+      </c>
+      <c r="D14" t="n">
+        <v>752.5309017946422</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>351</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-28.90206338481187</v>
+      </c>
+      <c r="D15" t="n">
+        <v>746.9252543722971</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>341</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-17.05162522696716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>717.0589690107892</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>331</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-33.13055801650846</v>
+      </c>
+      <c r="D17" t="n">
+        <v>712.8595845535627</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>321</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-52.00942880059735</v>
+      </c>
+      <c r="D18" t="n">
+        <v>735.8314903610377</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>301</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-100.317534600808</v>
+      </c>
+      <c r="D19" t="n">
+        <v>663.8396675127074</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>291</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-95.22387776150548</v>
+      </c>
+      <c r="D20" t="n">
+        <v>676.671302277936</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>282</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-125.0599242051465</v>
+      </c>
+      <c r="D21" t="n">
+        <v>653.0740043995708</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-155.2879231264015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>634.1637429501662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>212</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-166.6597989179165</v>
+      </c>
+      <c r="D23" t="n">
+        <v>610.0554944299174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>203</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-205.4050412777973</v>
+      </c>
+      <c r="D24" t="n">
+        <v>628.2492998968251</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>193</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-194.1484548597792</v>
+      </c>
+      <c r="D25" t="n">
+        <v>585.2638765969939</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>183</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-188.8217694371561</v>
+      </c>
+      <c r="D26" t="n">
+        <v>572.1630071077725</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>173</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-210.7186000038403</v>
+      </c>
+      <c r="D27" t="n">
+        <v>544.7114384602068</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>163</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-221.3723763194249</v>
+      </c>
+      <c r="D28" t="n">
+        <v>546.1274931102586</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>143</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-242.5867209130034</v>
+      </c>
+      <c r="D29" t="n">
+        <v>535.2525543809338</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>134</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-243.2193633868621</v>
+      </c>
+      <c r="D30" t="n">
+        <v>524.3498710247753</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>124</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-256.4454227334432</v>
+      </c>
+      <c r="D31" t="n">
+        <v>509.5696280019298</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>114</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-276.5897221381379</v>
+      </c>
+      <c r="D32" t="n">
+        <v>513.1809799671663</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>104</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-275.8229853388509</v>
+      </c>
+      <c r="D33" t="n">
+        <v>467.8885914960937</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>94</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-313.0932545047821</v>
+      </c>
+      <c r="D34" t="n">
+        <v>476.6300480915744</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>74</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-307.9767910293493</v>
+      </c>
+      <c r="D35" t="n">
+        <v>472.4064108668519</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-310.8576390507456</v>
+      </c>
+      <c r="D36" t="n">
+        <v>463.3051203147255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-328.1111108190048</v>
+      </c>
+      <c r="D37" t="n">
+        <v>410.3132637371115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>45</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-333.0520965043895</v>
+      </c>
+      <c r="D38" t="n">
+        <v>440.288913932659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-353.4246054887493</v>
+      </c>
+      <c r="D39" t="n">
+        <v>425.5501253092842</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-348.0745994576346</v>
+      </c>
+      <c r="D40" t="n">
+        <v>446.8700911081787</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-361.6328951306547</v>
+      </c>
+      <c r="D41" t="n">
+        <v>380.3307898342247</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-382.7468863562716</v>
+      </c>
+      <c r="D42" t="n">
+        <v>399.8262093383179</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-409.404416594989</v>
+      </c>
+      <c r="D43" t="n">
+        <v>382.4768442273719</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK87B4R_po_data.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,16 +872,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -890,12 +880,6 @@
       <c r="B2" t="n">
         <v>508</v>
       </c>
-      <c r="C2" t="n">
-        <v>145.8098183648693</v>
-      </c>
-      <c r="D2" t="n">
-        <v>892.7825178429489</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -904,12 +888,6 @@
       <c r="B3" t="n">
         <v>499</v>
       </c>
-      <c r="C3" t="n">
-        <v>108.5351727552197</v>
-      </c>
-      <c r="D3" t="n">
-        <v>885.4973714335051</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -918,12 +896,6 @@
       <c r="B4" t="n">
         <v>489</v>
       </c>
-      <c r="C4" t="n">
-        <v>86.26438380504935</v>
-      </c>
-      <c r="D4" t="n">
-        <v>886.8411011414785</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -932,12 +904,6 @@
       <c r="B5" t="n">
         <v>479</v>
       </c>
-      <c r="C5" t="n">
-        <v>96.78747476538096</v>
-      </c>
-      <c r="D5" t="n">
-        <v>850.6203076796837</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -946,12 +912,6 @@
       <c r="B6" t="n">
         <v>459</v>
       </c>
-      <c r="C6" t="n">
-        <v>72.46969946524325</v>
-      </c>
-      <c r="D6" t="n">
-        <v>839.2972522373504</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -960,12 +920,6 @@
       <c r="B7" t="n">
         <v>449</v>
       </c>
-      <c r="C7" t="n">
-        <v>92.30886614690128</v>
-      </c>
-      <c r="D7" t="n">
-        <v>811.8210538415991</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -974,12 +928,6 @@
       <c r="B8" t="n">
         <v>439</v>
       </c>
-      <c r="C8" t="n">
-        <v>53.55109746185657</v>
-      </c>
-      <c r="D8" t="n">
-        <v>812.7453622599968</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -988,12 +936,6 @@
       <c r="B9" t="n">
         <v>430</v>
       </c>
-      <c r="C9" t="n">
-        <v>48.281025509048</v>
-      </c>
-      <c r="D9" t="n">
-        <v>818.6968236477281</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1002,12 +944,6 @@
       <c r="B10" t="n">
         <v>420</v>
       </c>
-      <c r="C10" t="n">
-        <v>19.50939532861754</v>
-      </c>
-      <c r="D10" t="n">
-        <v>797.4604307820865</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1016,12 +952,6 @@
       <c r="B11" t="n">
         <v>410</v>
       </c>
-      <c r="C11" t="n">
-        <v>-22.55947800121094</v>
-      </c>
-      <c r="D11" t="n">
-        <v>801.5068749909087</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1030,12 +960,6 @@
       <c r="B12" t="n">
         <v>400</v>
       </c>
-      <c r="C12" t="n">
-        <v>33.45726121212674</v>
-      </c>
-      <c r="D12" t="n">
-        <v>778.8054526408001</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1044,12 +968,6 @@
       <c r="B13" t="n">
         <v>380</v>
       </c>
-      <c r="C13" t="n">
-        <v>12.79225130361617</v>
-      </c>
-      <c r="D13" t="n">
-        <v>755.8627254187193</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1058,12 +976,6 @@
       <c r="B14" t="n">
         <v>370</v>
       </c>
-      <c r="C14" t="n">
-        <v>-43.92275861567186</v>
-      </c>
-      <c r="D14" t="n">
-        <v>752.5309017946422</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1072,12 +984,6 @@
       <c r="B15" t="n">
         <v>351</v>
       </c>
-      <c r="C15" t="n">
-        <v>-28.90206338481187</v>
-      </c>
-      <c r="D15" t="n">
-        <v>746.9252543722971</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1086,12 +992,6 @@
       <c r="B16" t="n">
         <v>341</v>
       </c>
-      <c r="C16" t="n">
-        <v>-17.05162522696716</v>
-      </c>
-      <c r="D16" t="n">
-        <v>717.0589690107892</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1100,12 +1000,6 @@
       <c r="B17" t="n">
         <v>331</v>
       </c>
-      <c r="C17" t="n">
-        <v>-33.13055801650846</v>
-      </c>
-      <c r="D17" t="n">
-        <v>712.8595845535627</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1114,12 +1008,6 @@
       <c r="B18" t="n">
         <v>321</v>
       </c>
-      <c r="C18" t="n">
-        <v>-52.00942880059735</v>
-      </c>
-      <c r="D18" t="n">
-        <v>735.8314903610377</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1128,12 +1016,6 @@
       <c r="B19" t="n">
         <v>301</v>
       </c>
-      <c r="C19" t="n">
-        <v>-100.317534600808</v>
-      </c>
-      <c r="D19" t="n">
-        <v>663.8396675127074</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1142,12 +1024,6 @@
       <c r="B20" t="n">
         <v>291</v>
       </c>
-      <c r="C20" t="n">
-        <v>-95.22387776150548</v>
-      </c>
-      <c r="D20" t="n">
-        <v>676.671302277936</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1156,12 +1032,6 @@
       <c r="B21" t="n">
         <v>282</v>
       </c>
-      <c r="C21" t="n">
-        <v>-125.0599242051465</v>
-      </c>
-      <c r="D21" t="n">
-        <v>653.0740043995708</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1170,12 +1040,6 @@
       <c r="B22" t="n">
         <v>232</v>
       </c>
-      <c r="C22" t="n">
-        <v>-155.2879231264015</v>
-      </c>
-      <c r="D22" t="n">
-        <v>634.1637429501662</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1184,12 +1048,6 @@
       <c r="B23" t="n">
         <v>212</v>
       </c>
-      <c r="C23" t="n">
-        <v>-166.6597989179165</v>
-      </c>
-      <c r="D23" t="n">
-        <v>610.0554944299174</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1198,12 +1056,6 @@
       <c r="B24" t="n">
         <v>203</v>
       </c>
-      <c r="C24" t="n">
-        <v>-205.4050412777973</v>
-      </c>
-      <c r="D24" t="n">
-        <v>628.2492998968251</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1212,12 +1064,6 @@
       <c r="B25" t="n">
         <v>193</v>
       </c>
-      <c r="C25" t="n">
-        <v>-194.1484548597792</v>
-      </c>
-      <c r="D25" t="n">
-        <v>585.2638765969939</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1226,12 +1072,6 @@
       <c r="B26" t="n">
         <v>183</v>
       </c>
-      <c r="C26" t="n">
-        <v>-188.8217694371561</v>
-      </c>
-      <c r="D26" t="n">
-        <v>572.1630071077725</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1240,12 +1080,6 @@
       <c r="B27" t="n">
         <v>173</v>
       </c>
-      <c r="C27" t="n">
-        <v>-210.7186000038403</v>
-      </c>
-      <c r="D27" t="n">
-        <v>544.7114384602068</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1254,12 +1088,6 @@
       <c r="B28" t="n">
         <v>163</v>
       </c>
-      <c r="C28" t="n">
-        <v>-221.3723763194249</v>
-      </c>
-      <c r="D28" t="n">
-        <v>546.1274931102586</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1268,12 +1096,6 @@
       <c r="B29" t="n">
         <v>143</v>
       </c>
-      <c r="C29" t="n">
-        <v>-242.5867209130034</v>
-      </c>
-      <c r="D29" t="n">
-        <v>535.2525543809338</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1282,12 +1104,6 @@
       <c r="B30" t="n">
         <v>134</v>
       </c>
-      <c r="C30" t="n">
-        <v>-243.2193633868621</v>
-      </c>
-      <c r="D30" t="n">
-        <v>524.3498710247753</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1296,12 +1112,6 @@
       <c r="B31" t="n">
         <v>124</v>
       </c>
-      <c r="C31" t="n">
-        <v>-256.4454227334432</v>
-      </c>
-      <c r="D31" t="n">
-        <v>509.5696280019298</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1310,12 +1120,6 @@
       <c r="B32" t="n">
         <v>114</v>
       </c>
-      <c r="C32" t="n">
-        <v>-276.5897221381379</v>
-      </c>
-      <c r="D32" t="n">
-        <v>513.1809799671663</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1324,12 +1128,6 @@
       <c r="B33" t="n">
         <v>104</v>
       </c>
-      <c r="C33" t="n">
-        <v>-275.8229853388509</v>
-      </c>
-      <c r="D33" t="n">
-        <v>467.8885914960937</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1338,12 +1136,6 @@
       <c r="B34" t="n">
         <v>94</v>
       </c>
-      <c r="C34" t="n">
-        <v>-313.0932545047821</v>
-      </c>
-      <c r="D34" t="n">
-        <v>476.6300480915744</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1352,12 +1144,6 @@
       <c r="B35" t="n">
         <v>74</v>
       </c>
-      <c r="C35" t="n">
-        <v>-307.9767910293493</v>
-      </c>
-      <c r="D35" t="n">
-        <v>472.4064108668519</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1366,12 +1152,6 @@
       <c r="B36" t="n">
         <v>64</v>
       </c>
-      <c r="C36" t="n">
-        <v>-310.8576390507456</v>
-      </c>
-      <c r="D36" t="n">
-        <v>463.3051203147255</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1380,12 +1160,6 @@
       <c r="B37" t="n">
         <v>55</v>
       </c>
-      <c r="C37" t="n">
-        <v>-328.1111108190048</v>
-      </c>
-      <c r="D37" t="n">
-        <v>410.3132637371115</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1394,12 +1168,6 @@
       <c r="B38" t="n">
         <v>45</v>
       </c>
-      <c r="C38" t="n">
-        <v>-333.0520965043895</v>
-      </c>
-      <c r="D38" t="n">
-        <v>440.288913932659</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1408,12 +1176,6 @@
       <c r="B39" t="n">
         <v>35</v>
       </c>
-      <c r="C39" t="n">
-        <v>-353.4246054887493</v>
-      </c>
-      <c r="D39" t="n">
-        <v>425.5501253092842</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1422,12 +1184,6 @@
       <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
-        <v>-348.0745994576346</v>
-      </c>
-      <c r="D40" t="n">
-        <v>446.8700911081787</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1436,12 +1192,6 @@
       <c r="B41" t="n">
         <v>15</v>
       </c>
-      <c r="C41" t="n">
-        <v>-361.6328951306547</v>
-      </c>
-      <c r="D41" t="n">
-        <v>380.3307898342247</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1450,12 +1200,6 @@
       <c r="B42" t="n">
         <v>5</v>
       </c>
-      <c r="C42" t="n">
-        <v>-382.7468863562716</v>
-      </c>
-      <c r="D42" t="n">
-        <v>399.8262093383179</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1463,12 +1207,6 @@
       </c>
       <c r="B43" t="n">
         <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-409.404416594989</v>
-      </c>
-      <c r="D43" t="n">
-        <v>382.4768442273719</v>
       </c>
     </row>
   </sheetData>
